--- a/data/trans_camb/P19_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P19_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>0,69</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,98</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,47</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-2,32</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-2,74</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-2,66</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; -0,3</t>
+          <t>0,01; 4,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,74</t>
+          <t>-0,55; 4,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,61</t>
+          <t>-4,36; 1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,54</t>
+          <t>-4,04; 2,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,02</t>
+          <t>-4,39; 2,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -0,76</t>
+          <t>-4,39; 1,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 0,51</t>
+          <t>-0,03; 5,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,31</t>
+          <t>0,81; 6,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,92</t>
+          <t>-0,41; 5,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; -0,84</t>
+          <t>-2,62; 3,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,11</t>
+          <t>-7,03; -0,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,43</t>
+          <t>-5,44; 0,69</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 4,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 4,62</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 2,71</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 2,06</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 0,35</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 0,26</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-39,94%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-28,94%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-30,63%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-35,69%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-23,88%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-33,99%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-33,04%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>-2,46%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-0,09%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-1,99%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,9; -3,99</t>
+          <t>-0,02; 5,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,87; 17,79</t>
+          <t>-0,56; 4,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 72,68</t>
+          <t>-4,61; 1,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 69,52</t>
+          <t>-4,26; 2,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,9; 0,88</t>
+          <t>-4,68; 2,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,94; -8,15</t>
+          <t>-4,68; 1,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 6,44</t>
+          <t>-0,02; 6,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 40,43</t>
+          <t>0,89; 7,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,97; -12,25</t>
+          <t>-0,43; 6,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-49,44; -10,85</t>
+          <t>-2,87; 4,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 15,72</t>
+          <t>-7,52; -0,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 35,05</t>
+          <t>-5,94; 0,78</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 4,92</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 5,1</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 3,0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 2,24</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 0,37</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 0,29</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,78</t>
+          <t>-1,21; 3,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,73</t>
+          <t>-3,03; 1,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,97</t>
+          <t>-6,74; 1,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 5,74</t>
+          <t>-2,85; 2,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,78</t>
+          <t>-10,75; -2,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; -1,02</t>
+          <t>-10,52; -0,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 1,15</t>
+          <t>-2,99; 5,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 11,51</t>
+          <t>0,71; 7,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,4</t>
+          <t>-1,09; 5,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,04</t>
+          <t>-2,63; 5,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,54</t>
+          <t>-7,76; 2,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 6,54</t>
+          <t>-3,55; 9,89</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 3,81</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 4,2</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 2,34</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 2,79</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; -1,15</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 3,58</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-37,37%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,51%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-39,07%</t>
+          <t>-4,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,43%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-23,19%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-25,38%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-2,77%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-4,52%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-1,28%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,93; 34,47</t>
+          <t>-1,24; 3,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,63; 86,1</t>
+          <t>-3,13; 2,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 211,6</t>
+          <t>-7,0; 1,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 166,91</t>
+          <t>-2,95; 2,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 20,63</t>
+          <t>-11,2; -2,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,22; -10,69</t>
+          <t>-11,0; -0,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,27; 13,44</t>
+          <t>-3,27; 6,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 125,12</t>
+          <t>0,8; 8,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,25; 8,25</t>
+          <t>-1,17; 6,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-44,9; 1,79</t>
+          <t>-2,87; 5,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 39,04</t>
+          <t>-8,42; 2,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 100,94</t>
+          <t>-3,95; 12,25</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 4,17</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 4,5</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 2,56</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 3,04</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; -1,23</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 4,14</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-3,19</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-4,52</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-2,75</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -1,79</t>
+          <t>1,58; 10,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 5,05</t>
+          <t>-5,25; 6,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -0,09</t>
+          <t>-1,25; 8,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-5,51; 7,55</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; 3,05</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 7,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 4,73</t>
+          <t>-3,51; 9,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-7,41; 5,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 7,47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 7,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-8,32; -0,86</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 3,92</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 0,67</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 8,31</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 4,55</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 6,79</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 5,6</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-84,09%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,3%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-62,87%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-33,23%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-11,49%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-55,11%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-0,04%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-33,52%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-0,03%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -19,46</t>
+          <t>1,71; 11,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,92; 130,52</t>
+          <t>-5,45; 6,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-92,45; 18,57</t>
+          <t>-1,22; 10,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-5,77; 8,5</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-73,87; 54,13</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 109,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-57,3; 72,2</t>
+          <t>-3,74; 11,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-7,96; 6,29</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 8,58</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 8,53</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-79,26; -2,88</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-44,28; 63,45</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-65,74; 11,33</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 9,52</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 5,08</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 7,67</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 6,23</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; -1,07</t>
+          <t>0,46; 3,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,0</t>
+          <t>-0,86; 2,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,05</t>
+          <t>-3,08; 1,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,3</t>
+          <t>-2,43; 1,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -0,48</t>
+          <t>-5,52; -0,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -1,25</t>
+          <t>-4,83; 0,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; -0,16</t>
+          <t>0,17; 4,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,54</t>
+          <t>1,35; 5,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; -1,23</t>
+          <t>0,17; 4,24</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,77</t>
+          <t>-1,34; 3,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,65</t>
+          <t>-5,85; -0,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,89</t>
+          <t>-4,11; 1,64</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 3,85</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 3,4</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 2,3</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 1,95</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; -1,11</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 0,14</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-45,83%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,11%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-32,58%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-21,2%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-32,58%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-26,12%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-10,03%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>-1,31%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,33; -22,02</t>
+          <t>0,48; 4,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 22,08</t>
+          <t>-0,89; 2,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 64,71</t>
+          <t>-3,24; 1,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 70,65</t>
+          <t>-2,55; 1,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,0; -4,38</t>
+          <t>-5,82; -0,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,01; -13,75</t>
+          <t>-5,15; 0,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,4; -0,74</t>
+          <t>0,2; 5,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 39,42</t>
+          <t>1,5; 5,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,81; -16,2</t>
+          <t>0,19; 4,77</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-39,92; -10,72</t>
+          <t>-1,48; 3,66</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 9,73</t>
+          <t>-6,34; -0,55</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 41,71</t>
+          <t>-4,52; 1,89</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 4,22</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 3,74</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 2,53</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 2,13</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; -1,21</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 0,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
